--- a/Document/money.xlsx
+++ b/Document/money.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-260" yWindow="820" windowWidth="28800" windowHeight="16560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>Chi phí</t>
   </si>
@@ -138,6 +138,18 @@
   </si>
   <si>
     <t>Tổng</t>
+  </si>
+  <si>
+    <t>final document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huỳnh Quang Thảo </t>
+  </si>
+  <si>
+    <t>Chi phí mỗi người</t>
+  </si>
+  <si>
+    <t>Tổng chi</t>
   </si>
 </sst>
 </file>
@@ -226,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -234,6 +246,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M22"/>
+  <dimension ref="A2:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -714,10 +728,18 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2">
+        <v>70</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="G8" s="4" t="s">
         <v>31</v>
@@ -882,23 +904,37 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="B22" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="7">
+        <f>SUM(C3:C8)</f>
+        <v>700</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="8">
+        <f>C22/4</f>
+        <v>175</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/money.xlsx
+++ b/Document/money.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>Chi phí</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>Tổng chi</t>
+  </si>
+  <si>
+    <t>[SMAC] Venus</t>
   </si>
 </sst>
 </file>
@@ -528,7 +531,7 @@
   <dimension ref="A2:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -840,16 +843,11 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="G15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="6">
-        <f>SUM(H3:H14)</f>
-        <v>7000</v>
-      </c>
-      <c r="I15" s="6">
-        <f>SUM(I3:I14)</f>
-        <v>0</v>
+      <c r="G15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="4">
+        <v>550</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -878,9 +876,17 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="G18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="6">
+        <f>SUM(H3:H15)</f>
+        <v>7550</v>
+      </c>
+      <c r="I18" s="6">
+        <f>SUM(I3:I14)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>

--- a/Document/money.xlsx
+++ b/Document/money.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Chi phí</t>
   </si>
@@ -110,18 +110,6 @@
     <t>thảo có lỗi trả cho team</t>
   </si>
   <si>
-    <t>[SMAC] Venus - 5</t>
-  </si>
-  <si>
-    <t>[SMAC] Venus - 6</t>
-  </si>
-  <si>
-    <t>[SMAC] Quy</t>
-  </si>
-  <si>
-    <t>Tiền ăn phở</t>
-  </si>
-  <si>
     <t xml:space="preserve">Đạt tiền wear </t>
   </si>
   <si>
@@ -150,9 +138,6 @@
   </si>
   <si>
     <t>Tổng chi</t>
-  </si>
-  <si>
-    <t>[SMAC] Venus</t>
   </si>
 </sst>
 </file>
@@ -203,7 +188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -226,27 +211,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -530,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -572,8 +545,8 @@
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -683,7 +656,7 @@
       </c>
       <c r="E6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H6" s="2">
         <v>600</v>
@@ -717,7 +690,7 @@
         <v>28</v>
       </c>
       <c r="H7" s="2">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="I7" s="2"/>
       <c r="K7">
@@ -735,21 +708,20 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2">
         <v>70</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8">
-        <f>35*4</f>
-        <v>140</v>
+      <c r="G8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1100</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -760,10 +732,10 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9" s="2">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -774,10 +746,10 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10" s="2">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="I10" s="2"/>
     </row>
@@ -787,12 +759,8 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="G11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1100</v>
-      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -801,12 +769,8 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="G12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1100</v>
-      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -815,13 +779,17 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="G13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1000</v>
-      </c>
-      <c r="I13" s="2"/>
+      <c r="G13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="5">
+        <f>SUM(H3:H10)</f>
+        <v>5560</v>
+      </c>
+      <c r="I13" s="5">
+        <f>SUM(I3:I10)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
@@ -829,12 +797,8 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="G14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1100</v>
-      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -843,12 +807,9 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="G15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="4">
-        <v>550</v>
-      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
@@ -876,17 +837,6 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="6">
-        <f>SUM(H3:H15)</f>
-        <v>7550</v>
-      </c>
-      <c r="I18" s="6">
-        <f>SUM(I3:I14)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
@@ -894,9 +844,6 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
@@ -904,40 +851,31 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="7">
+      <c r="B22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="6">
         <f>SUM(C3:C8)</f>
         <v>700</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="8">
+      <c r="B25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="7">
         <f>C22/4</f>
         <v>175</v>
       </c>

--- a/Document/money.xlsx
+++ b/Document/money.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>Chi phí</t>
   </si>
@@ -41,103 +41,133 @@
     <t>Người thanh toán</t>
   </si>
   <si>
+    <t>in dĩa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Thanh Ngoan </t>
+  </si>
+  <si>
+    <t>document (trường)</t>
+  </si>
+  <si>
+    <t>document (cho trường)</t>
+  </si>
+  <si>
+    <t>Quyết toán</t>
+  </si>
+  <si>
+    <t>Lí do</t>
+  </si>
+  <si>
+    <t>Nam mượn Thảo tiền tài liệu</t>
+  </si>
+  <si>
+    <t>Nam mượn Thảo tiền xăng</t>
+  </si>
+  <si>
+    <t>Nam đi nhậu</t>
+  </si>
+  <si>
+    <t>Lịch vào khách sạn</t>
+  </si>
+  <si>
+    <t>Mai Vàng</t>
+  </si>
+  <si>
+    <t>Venus (thư bảy)</t>
+  </si>
+  <si>
+    <t>Venus (chủ nhật)</t>
+  </si>
+  <si>
+    <t>Venus (thứ năm)</t>
+  </si>
+  <si>
+    <t>thảo trả cho 5 thằng</t>
+  </si>
+  <si>
+    <t>Venus (thứ sáu)</t>
+  </si>
+  <si>
+    <t>làm slide và quay video</t>
+  </si>
+  <si>
+    <t>(Quy, Thảo, Nam, Ngoan, Đạt karaoke</t>
+  </si>
+  <si>
+    <t>Thảo đi sớm mọi người trả tiền</t>
+  </si>
+  <si>
+    <t>thảo có lỗi trả cho team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đạt tiền wear </t>
+  </si>
+  <si>
+    <t>Ngoan tiền wear</t>
+  </si>
+  <si>
+    <t>Khương gữ tiền Đạt</t>
+  </si>
+  <si>
+    <t>Quy (KFC+Mai Vàng)</t>
+  </si>
+  <si>
+    <t>Tổng</t>
+  </si>
+  <si>
+    <t>final document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huỳnh Quang Thảo </t>
+  </si>
+  <si>
+    <t>Chi phí mỗi người</t>
+  </si>
+  <si>
+    <t>Tổng chi</t>
+  </si>
+  <si>
+    <t>Nam mượn Thảo tiền học</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Ngoan giữ tiền Nam</t>
+  </si>
+  <si>
+    <t>Lĩnh nợ thảo 340</t>
+  </si>
+  <si>
+    <t>done (tiền SMAC)</t>
+  </si>
+  <si>
+    <t>Đạt tiền tài liệu</t>
+  </si>
+  <si>
+    <t>Ngoan tiền tài liệu</t>
+  </si>
+  <si>
+    <t>Nam tiền tài liệu</t>
+  </si>
+  <si>
+    <t>400 (tiền trả Nam tài liệu) + 100 Quy</t>
+  </si>
+  <si>
+    <t>Tiền SMAC  mỗi người: 2200</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
     <t>Ngô Tiến Đạt</t>
   </si>
   <si>
-    <t>in dĩa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trần Thanh Ngoan </t>
-  </si>
-  <si>
-    <t>document (diagram)</t>
-  </si>
-  <si>
-    <t>document (thầy)</t>
-  </si>
-  <si>
-    <t>document (trường)</t>
-  </si>
-  <si>
-    <t>document (cho trường)</t>
-  </si>
-  <si>
-    <t>Quyết toán</t>
-  </si>
-  <si>
-    <t>Lí do</t>
-  </si>
-  <si>
-    <t>Nam mượn Thảo tiền tài liệu</t>
-  </si>
-  <si>
-    <t>Nam mượn Thảo tiền xăng</t>
-  </si>
-  <si>
-    <t>Nam đi nhậu</t>
-  </si>
-  <si>
-    <t>Lịch vào khách sạn</t>
-  </si>
-  <si>
-    <t>Mai Vàng</t>
-  </si>
-  <si>
-    <t>Venus (thư bảy)</t>
-  </si>
-  <si>
-    <t>Venus (chủ nhật)</t>
-  </si>
-  <si>
-    <t>Venus (thứ năm)</t>
-  </si>
-  <si>
-    <t>thảo trả cho 5 thằng</t>
-  </si>
-  <si>
-    <t>Venus (thứ sáu)</t>
-  </si>
-  <si>
-    <t>làm slide và quay video</t>
-  </si>
-  <si>
-    <t>(Quy, Thảo, Nam, Ngoan, Đạt karaoke</t>
-  </si>
-  <si>
-    <t>Thảo đi sớm mọi người trả tiền</t>
-  </si>
-  <si>
-    <t>thảo có lỗi trả cho team</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đạt tiền wear </t>
-  </si>
-  <si>
-    <t>Ngoan tiền wear</t>
-  </si>
-  <si>
-    <t>Ngoan giữ Đạt</t>
-  </si>
-  <si>
-    <t>Khương gữ tiền Đạt</t>
-  </si>
-  <si>
-    <t>Quy (KFC+Mai Vàng)</t>
-  </si>
-  <si>
-    <t>Tổng</t>
-  </si>
-  <si>
-    <t>final document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huỳnh Quang Thảo </t>
-  </si>
-  <si>
-    <t>Chi phí mỗi người</t>
-  </si>
-  <si>
-    <t>Tổng chi</t>
+    <t>125 (tiền trả Ngoan tài liệu) + 75 (tiền SMAC)</t>
+  </si>
+  <si>
+    <t>90 Nam + 110 Quy tiền SMAC</t>
   </si>
 </sst>
 </file>
@@ -501,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M25"/>
+  <dimension ref="A2:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -512,12 +542,13 @@
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" customWidth="1"/>
     <col min="7" max="7" width="32.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" customWidth="1"/>
-    <col min="13" max="13" width="34" customWidth="1"/>
+    <col min="8" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="32.33203125" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" customWidth="1"/>
+    <col min="14" max="14" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -531,277 +562,340 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H3" s="2">
         <v>100</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="K3">
+      <c r="I3" s="2">
+        <v>100</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3">
         <v>1</v>
       </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
       <c r="M3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="N3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H4" s="2">
         <v>500</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="K4">
+      <c r="I4" s="2">
+        <v>500</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4">
         <v>2</v>
       </c>
-      <c r="L4" t="s">
-        <v>19</v>
-      </c>
       <c r="M4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="N4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2">
-        <v>70</v>
+        <v>400</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H5" s="2">
         <v>60</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="K5">
+      <c r="I5" s="2">
+        <v>60</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5">
         <v>3</v>
       </c>
-      <c r="L5" t="s">
-        <v>20</v>
-      </c>
       <c r="M5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="N5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H6" s="2">
         <v>600</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="K6">
+      <c r="I6" s="2">
+        <v>600</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6">
         <v>4</v>
       </c>
-      <c r="L6" t="s">
-        <v>21</v>
-      </c>
       <c r="M6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="N6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H7" s="2">
         <v>1100</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="K7">
+      <c r="I7" s="2">
+        <v>1100</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7">
         <v>5</v>
       </c>
-      <c r="L7" t="s">
-        <v>23</v>
-      </c>
       <c r="M7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="2">
-        <v>70</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="N7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H8" s="2">
         <v>1100</v>
       </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I8" s="2">
+        <v>1100</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H9" s="2">
         <v>1000</v>
       </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H10" s="2">
         <v>1100</v>
       </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I10" s="2">
+        <v>1100</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2000</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="2">
+        <v>200</v>
+      </c>
+      <c r="I12" s="2">
+        <v>200</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="G13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="5">
-        <f>SUM(H3:H10)</f>
-        <v>5560</v>
-      </c>
-      <c r="I13" s="5">
-        <f>SUM(I3:I10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="2">
+        <v>200</v>
+      </c>
+      <c r="I13" s="2">
+        <v>200</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="2">
+        <v>200</v>
+      </c>
+      <c r="I14" s="2">
+        <v>200</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -810,18 +904,31 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="5">
+        <f>SUM(H3:H14)</f>
+        <v>8160</v>
+      </c>
+      <c r="I16" s="5">
+        <f>SUM(I3:I14)</f>
+        <v>8160</v>
+      </c>
+      <c r="J16" s="5">
+        <f>H16-I16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -830,54 +937,80 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="6">
-        <f>SUM(C3:C8)</f>
-        <v>700</v>
-      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="7">
-        <f>C22/4</f>
-        <v>175</v>
+      <c r="G22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="6">
+        <f>SUM(C3:C7)</f>
+        <v>775</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="G23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="7">
+        <f>C23/4</f>
+        <v>193.75</v>
       </c>
     </row>
   </sheetData>
